--- a/利润表/688560.xlsx
+++ b/利润表/688560.xlsx
@@ -714,7 +714,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>002</t>
+          <t>001</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -734,47 +734,47 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2020-06-30 00:00:00</t>
+          <t>2017-12-31 00:00:00</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>49051656.55</v>
+        <v>37211605.48</v>
       </c>
       <c r="P2" t="n">
-        <v>341591337.46</v>
+        <v>594618847.33</v>
       </c>
       <c r="Q2" t="n">
-        <v>299781032.66</v>
+        <v>545943560.27</v>
       </c>
       <c r="R2" t="n">
-        <v>-27.4971726073</v>
+        <v>50.6961659172</v>
       </c>
       <c r="S2" t="n">
-        <v>264608664.03</v>
+        <v>466467763.04</v>
       </c>
       <c r="T2" t="n">
-        <v>264608664.03</v>
+        <v>466467763.04</v>
       </c>
       <c r="U2" t="n">
-        <v>-26.7914839042</v>
+        <v>52.4046303597</v>
       </c>
       <c r="V2" t="n">
-        <v>7495410.22</v>
+        <v>27363435.67</v>
       </c>
       <c r="W2" t="n">
-        <v>12497280.4</v>
+        <v>14874021.04</v>
       </c>
       <c r="X2" t="n">
-        <v>-849097.29</v>
+        <v>11410689.07</v>
       </c>
       <c r="Y2" t="n">
-        <v>56440136.35</v>
+        <v>48126106.11</v>
       </c>
       <c r="Z2" t="n">
-        <v>56530098.95</v>
+        <v>47324999.04</v>
       </c>
       <c r="AA2" t="n">
-        <v>7478442.4</v>
+        <v>10113393.56</v>
       </c>
       <c r="AB2" t="inlineStr"/>
       <c r="AC2" t="inlineStr"/>
@@ -782,7 +782,7 @@
       <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="n">
-        <v>2989877.93</v>
+        <v>5079285.97</v>
       </c>
       <c r="AH2" t="inlineStr"/>
       <c r="AI2" t="inlineStr"/>
@@ -793,19 +793,19 @@
       <c r="AN2" t="inlineStr"/>
       <c r="AO2" t="inlineStr"/>
       <c r="AP2" t="n">
-        <v>-29.2108396714</v>
+        <v>48.2233460403</v>
       </c>
       <c r="AQ2" t="n">
-        <v>-14.602149930832</v>
+        <v>65.804220056476</v>
       </c>
       <c r="AR2" t="n">
-        <v>-11.689896640096</v>
+        <v>45.199841221674</v>
       </c>
       <c r="AS2" t="n">
-        <v>37050556.55</v>
+        <v>32259905.48</v>
       </c>
       <c r="AT2" t="n">
-        <v>-9.527612356043999</v>
+        <v>43.311375132797</v>
       </c>
     </row>
   </sheetData>

--- a/利润表/688560.xlsx
+++ b/利润表/688560.xlsx
@@ -729,52 +729,52 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>2020-12-04 00:00:00</t>
+          <t>2020-12-18 00:00:00</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2017-12-31 00:00:00</t>
+          <t>2019-12-31 00:00:00</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>37211605.48</v>
+        <v>104905116.26</v>
       </c>
       <c r="P2" t="n">
-        <v>594618847.33</v>
+        <v>945745183.5700001</v>
       </c>
       <c r="Q2" t="n">
-        <v>545943560.27</v>
+        <v>818702785.8200001</v>
       </c>
       <c r="R2" t="n">
-        <v>50.6961659172</v>
+        <v>6.6574671297</v>
       </c>
       <c r="S2" t="n">
-        <v>466467763.04</v>
+        <v>714440488.4299999</v>
       </c>
       <c r="T2" t="n">
-        <v>466467763.04</v>
+        <v>714440488.4299999</v>
       </c>
       <c r="U2" t="n">
-        <v>52.4046303597</v>
+        <v>4.2751402151</v>
       </c>
       <c r="V2" t="n">
-        <v>27363435.67</v>
+        <v>34282999.37</v>
       </c>
       <c r="W2" t="n">
-        <v>14874021.04</v>
+        <v>24995071.91</v>
       </c>
       <c r="X2" t="n">
-        <v>11410689.07</v>
+        <v>1736159.66</v>
       </c>
       <c r="Y2" t="n">
-        <v>48126106.11</v>
+        <v>120292233.1</v>
       </c>
       <c r="Z2" t="n">
-        <v>47324999.04</v>
+        <v>119887919.82</v>
       </c>
       <c r="AA2" t="n">
-        <v>10113393.56</v>
+        <v>14982803.56</v>
       </c>
       <c r="AB2" t="inlineStr"/>
       <c r="AC2" t="inlineStr"/>
@@ -782,7 +782,7 @@
       <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="n">
-        <v>5079285.97</v>
+        <v>5925016.79</v>
       </c>
       <c r="AH2" t="inlineStr"/>
       <c r="AI2" t="inlineStr"/>
@@ -793,19 +793,19 @@
       <c r="AN2" t="inlineStr"/>
       <c r="AO2" t="inlineStr"/>
       <c r="AP2" t="n">
-        <v>48.2233460403</v>
+        <v>9.108964307899999</v>
       </c>
       <c r="AQ2" t="n">
-        <v>65.804220056476</v>
+        <v>22.0233846542</v>
       </c>
       <c r="AR2" t="n">
-        <v>45.199841221674</v>
+        <v>18.543399158102</v>
       </c>
       <c r="AS2" t="n">
-        <v>32259905.48</v>
+        <v>81090116.26000001</v>
       </c>
       <c r="AT2" t="n">
-        <v>43.311375132797</v>
+        <v>3.265927006884</v>
       </c>
     </row>
   </sheetData>

--- a/利润表/688560.xlsx
+++ b/利润表/688560.xlsx
@@ -714,14 +714,14 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
+          <t>002</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
           <t>001</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>001</t>
-        </is>
-      </c>
       <c r="L2" t="inlineStr">
         <is>
           <t>2</t>
@@ -734,47 +734,47 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2019-12-31 00:00:00</t>
+          <t>2020-06-30 00:00:00</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>104905116.26</v>
+        <v>49051656.55</v>
       </c>
       <c r="P2" t="n">
-        <v>945745183.5700001</v>
+        <v>341591337.46</v>
       </c>
       <c r="Q2" t="n">
-        <v>818702785.8200001</v>
+        <v>299781032.66</v>
       </c>
       <c r="R2" t="n">
-        <v>6.6574671297</v>
+        <v>-27.4971726073</v>
       </c>
       <c r="S2" t="n">
-        <v>714440488.4299999</v>
+        <v>264608664.03</v>
       </c>
       <c r="T2" t="n">
-        <v>714440488.4299999</v>
+        <v>264608664.03</v>
       </c>
       <c r="U2" t="n">
-        <v>4.2751402151</v>
+        <v>-26.7914839042</v>
       </c>
       <c r="V2" t="n">
-        <v>34282999.37</v>
+        <v>7495410.22</v>
       </c>
       <c r="W2" t="n">
-        <v>24995071.91</v>
+        <v>12497280.4</v>
       </c>
       <c r="X2" t="n">
-        <v>1736159.66</v>
+        <v>-849097.29</v>
       </c>
       <c r="Y2" t="n">
-        <v>120292233.1</v>
+        <v>56440136.35</v>
       </c>
       <c r="Z2" t="n">
-        <v>119887919.82</v>
+        <v>56530098.95</v>
       </c>
       <c r="AA2" t="n">
-        <v>14982803.56</v>
+        <v>7478442.4</v>
       </c>
       <c r="AB2" t="inlineStr"/>
       <c r="AC2" t="inlineStr"/>
@@ -782,7 +782,7 @@
       <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="n">
-        <v>5925016.79</v>
+        <v>2989877.93</v>
       </c>
       <c r="AH2" t="inlineStr"/>
       <c r="AI2" t="inlineStr"/>
@@ -793,19 +793,19 @@
       <c r="AN2" t="inlineStr"/>
       <c r="AO2" t="inlineStr"/>
       <c r="AP2" t="n">
-        <v>9.108964307899999</v>
+        <v>-29.2108396714</v>
       </c>
       <c r="AQ2" t="n">
-        <v>22.0233846542</v>
+        <v>-14.602149930832</v>
       </c>
       <c r="AR2" t="n">
-        <v>18.543399158102</v>
+        <v>-11.689896640096</v>
       </c>
       <c r="AS2" t="n">
-        <v>81090116.26000001</v>
+        <v>37050556.55</v>
       </c>
       <c r="AT2" t="n">
-        <v>3.265927006884</v>
+        <v>-9.527612356043999</v>
       </c>
     </row>
   </sheetData>

--- a/利润表/688560.xlsx
+++ b/利润表/688560.xlsx
@@ -714,7 +714,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>002</t>
+          <t>001</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -734,47 +734,47 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2020-06-30 00:00:00</t>
+          <t>2019-12-31 00:00:00</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>49051656.55</v>
+        <v>104905116.26</v>
       </c>
       <c r="P2" t="n">
-        <v>341591337.46</v>
+        <v>945745183.5700001</v>
       </c>
       <c r="Q2" t="n">
-        <v>299781032.66</v>
+        <v>818702785.8200001</v>
       </c>
       <c r="R2" t="n">
-        <v>-27.4971726073</v>
+        <v>6.6574671297</v>
       </c>
       <c r="S2" t="n">
-        <v>264608664.03</v>
+        <v>714440488.4299999</v>
       </c>
       <c r="T2" t="n">
-        <v>264608664.03</v>
+        <v>714440488.4299999</v>
       </c>
       <c r="U2" t="n">
-        <v>-26.7914839042</v>
+        <v>4.2751402151</v>
       </c>
       <c r="V2" t="n">
-        <v>7495410.22</v>
+        <v>34282999.37</v>
       </c>
       <c r="W2" t="n">
-        <v>12497280.4</v>
+        <v>24995071.91</v>
       </c>
       <c r="X2" t="n">
-        <v>-849097.29</v>
+        <v>1736159.66</v>
       </c>
       <c r="Y2" t="n">
-        <v>56440136.35</v>
+        <v>120292233.1</v>
       </c>
       <c r="Z2" t="n">
-        <v>56530098.95</v>
+        <v>119887919.82</v>
       </c>
       <c r="AA2" t="n">
-        <v>7478442.4</v>
+        <v>14982803.56</v>
       </c>
       <c r="AB2" t="inlineStr"/>
       <c r="AC2" t="inlineStr"/>
@@ -782,7 +782,7 @@
       <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="n">
-        <v>2989877.93</v>
+        <v>5925016.79</v>
       </c>
       <c r="AH2" t="inlineStr"/>
       <c r="AI2" t="inlineStr"/>
@@ -793,19 +793,19 @@
       <c r="AN2" t="inlineStr"/>
       <c r="AO2" t="inlineStr"/>
       <c r="AP2" t="n">
-        <v>-29.2108396714</v>
+        <v>9.108964307899999</v>
       </c>
       <c r="AQ2" t="n">
-        <v>-14.602149930832</v>
+        <v>22.0233846542</v>
       </c>
       <c r="AR2" t="n">
-        <v>-11.689896640096</v>
+        <v>18.543399158102</v>
       </c>
       <c r="AS2" t="n">
-        <v>37050556.55</v>
+        <v>81090116.26000001</v>
       </c>
       <c r="AT2" t="n">
-        <v>-9.527612356043999</v>
+        <v>3.265947713529</v>
       </c>
     </row>
   </sheetData>

--- a/利润表/688560.xlsx
+++ b/利润表/688560.xlsx
@@ -714,14 +714,14 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
+          <t>002</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
           <t>001</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>001</t>
-        </is>
-      </c>
       <c r="L2" t="inlineStr">
         <is>
           <t>2</t>
@@ -734,47 +734,47 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2019-12-31 00:00:00</t>
+          <t>2020-06-30 00:00:00</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>104905116.26</v>
+        <v>49051656.55</v>
       </c>
       <c r="P2" t="n">
-        <v>945745183.5700001</v>
+        <v>341591337.46</v>
       </c>
       <c r="Q2" t="n">
-        <v>818702785.8200001</v>
+        <v>299781032.66</v>
       </c>
       <c r="R2" t="n">
-        <v>6.6574671297</v>
+        <v>-27.4971726073</v>
       </c>
       <c r="S2" t="n">
-        <v>714440488.4299999</v>
+        <v>264608664.03</v>
       </c>
       <c r="T2" t="n">
-        <v>714440488.4299999</v>
+        <v>264608664.03</v>
       </c>
       <c r="U2" t="n">
-        <v>4.2751402151</v>
+        <v>-26.7914839042</v>
       </c>
       <c r="V2" t="n">
-        <v>34282999.37</v>
+        <v>7495410.22</v>
       </c>
       <c r="W2" t="n">
-        <v>24995071.91</v>
+        <v>12497280.4</v>
       </c>
       <c r="X2" t="n">
-        <v>1736159.66</v>
+        <v>-849097.29</v>
       </c>
       <c r="Y2" t="n">
-        <v>120292233.1</v>
+        <v>56440136.35</v>
       </c>
       <c r="Z2" t="n">
-        <v>119887919.82</v>
+        <v>56530098.95</v>
       </c>
       <c r="AA2" t="n">
-        <v>14982803.56</v>
+        <v>7478442.4</v>
       </c>
       <c r="AB2" t="inlineStr"/>
       <c r="AC2" t="inlineStr"/>
@@ -782,7 +782,7 @@
       <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="n">
-        <v>5925016.79</v>
+        <v>2989877.93</v>
       </c>
       <c r="AH2" t="inlineStr"/>
       <c r="AI2" t="inlineStr"/>
@@ -793,19 +793,19 @@
       <c r="AN2" t="inlineStr"/>
       <c r="AO2" t="inlineStr"/>
       <c r="AP2" t="n">
-        <v>9.108964307899999</v>
+        <v>-29.2108396714</v>
       </c>
       <c r="AQ2" t="n">
-        <v>22.0233846542</v>
+        <v>-14.602149930832</v>
       </c>
       <c r="AR2" t="n">
-        <v>18.543399158102</v>
+        <v>-11.689896640096</v>
       </c>
       <c r="AS2" t="n">
-        <v>81090116.26000001</v>
+        <v>37050556.55</v>
       </c>
       <c r="AT2" t="n">
-        <v>3.265947713529</v>
+        <v>-9.527612356043999</v>
       </c>
     </row>
   </sheetData>
